--- a/assets/excel/import_data.xlsx
+++ b/assets/excel/import_data.xlsx
@@ -900,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1416,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
